--- a/ListOfNCBI-SRASamplesForExperimentST.xlsx
+++ b/ListOfNCBI-SRASamplesForExperimentST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sagnik/work/ABRIDGE/Abridge_analysis_for_MS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A09D326-441D-5A46-BA2D-0F2B35586732}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65870DFC-EDC7-A545-B6F1-C9574053DF64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{52594241-8EDA-EB46-9CBA-DCDD6701D698}"/>
   </bookViews>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
